--- a/uploads/exam_score.xlsx
+++ b/uploads/exam_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA4BCF-8B2A-4023-93E7-3AB4A9373A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730C6DA-7AB7-4D52-861B-CA2B1D8E6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,63 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註(C、E、G…都是前一欄位的備註，請不要將考試場次填在奇數格)</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請假</t>
+    <t>2025-01-06,自辦</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-02-19,自辦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
   </si>
   <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S11350123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +64,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -399,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -417,98 +393,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
         <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score.xlsx
+++ b/uploads/exam_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730C6DA-7AB7-4D52-861B-CA2B1D8E6B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16E9EF-8125-4470-8BB6-2743E52271F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>S11350123</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -375,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -410,6 +422,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/exam_score.xlsx
+++ b/uploads/exam_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16E9EF-8125-4470-8BB6-2743E52271F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E18AC-D70E-45B5-B1C7-1335CB341295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>請假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2025-01-06,自辦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S11350123</t>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
+    <t>2024-07-18,自辦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +77,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -387,17 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="153.375" customWidth="1"/>
-    <col min="3" max="3" width="69.125" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -405,36 +399,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/exam_score.xlsx
+++ b/uploads/exam_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E18AC-D70E-45B5-B1C7-1335CB341295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27353B1D-B951-4FF3-B74B-20F5F21AFA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>S10350137</t>
   </si>
   <si>
     <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>S11350150</t>
+  </si>
+  <si>
+    <t>S11350207</t>
+  </si>
+  <si>
+    <t>S11350110</t>
+  </si>
+  <si>
+    <t>S12350338</t>
+  </si>
+  <si>
+    <t>S10350235</t>
+  </si>
+  <si>
+    <t>S10350311</t>
+  </si>
+  <si>
+    <t>S11350705</t>
+  </si>
+  <si>
+    <t>S13350338</t>
+  </si>
+  <si>
+    <t>S10350151</t>
+  </si>
+  <si>
+    <t>S10350333</t>
+  </si>
+  <si>
+    <t>S11350113</t>
+  </si>
+  <si>
+    <t>S10350205</t>
+  </si>
+  <si>
+    <t>S10350130</t>
+  </si>
+  <si>
+    <t>S10350237</t>
+  </si>
+  <si>
+    <t>S11350104</t>
+  </si>
+  <si>
+    <t>S10350119</t>
+  </si>
+  <si>
+    <t>S10350150</t>
+  </si>
+  <si>
+    <t>S10350104</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>S10350143</t>
+  </si>
+  <si>
+    <t>2025-05-20,官辦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-18,自辦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>S12350117</t>
+  </si>
+  <si>
+    <t>S12350229</t>
+  </si>
+  <si>
+    <t>S12350106</t>
+  </si>
+  <si>
+    <t>S11350132</t>
+  </si>
+  <si>
+    <t>S10350325</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350344</t>
+  </si>
+  <si>
+    <t>S12350306</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350112</t>
+  </si>
+  <si>
+    <t>S11350121</t>
+  </si>
+  <si>
+    <t>S11350126</t>
+  </si>
+  <si>
+    <t>S09330240</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12350217</t>
+  </si>
+  <si>
+    <t>S10350345</t>
+  </si>
+  <si>
+    <t>S12350228</t>
+  </si>
+  <si>
+    <t>S09330121</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350117</t>
+  </si>
+  <si>
+    <t>S09350353</t>
+  </si>
+  <si>
+    <t>S10350331</t>
+  </si>
+  <si>
+    <t>S10350152</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S09130041</t>
+  </si>
+  <si>
+    <t>S12350125</t>
+  </si>
+  <si>
+    <t>S10350340</t>
+  </si>
+  <si>
+    <t>S12350316</t>
+  </si>
+  <si>
+    <t>S10350231</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12350212</t>
+  </si>
+  <si>
+    <t>S11350239</t>
+  </si>
+  <si>
+    <t>S08222049</t>
+  </si>
+  <si>
+    <t>S10350148</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S11350105</t>
+  </si>
+  <si>
+    <t>S11350118</t>
+  </si>
+  <si>
+    <t>S11350116</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S11350209</t>
+  </si>
+  <si>
+    <t>S11350214</t>
+  </si>
+  <si>
+    <t>S10350347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10350126</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12350222</t>
+  </si>
+  <si>
+    <t>S10350301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S09350324</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10490022</t>
+  </si>
+  <si>
+    <t>S11350247</t>
+  </si>
+  <si>
+    <t>S10350303</t>
+  </si>
+  <si>
+    <t>S10350305</t>
+  </si>
+  <si>
+    <t>校外考</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +267,48 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,12 +316,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -381,17 +638,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -399,44 +656,598 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
